--- a/data/trans_dic/P25_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece colesterol alto</t>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>18,14%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>18,36%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,95</t>
+          <t>11,43; 16,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 16,25</t>
+          <t>11,11; 16,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,86</t>
+          <t>11,47; 16,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,18</t>
+          <t>14,36; 21,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,5</t>
+          <t>15,43; 20,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,18</t>
+          <t>12,5; 17,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,79</t>
+          <t>13,39; 18,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,75</t>
+          <t>13,07; 18,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 16,86</t>
+          <t>13,64; 19,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 16,38</t>
+          <t>17,32; 24,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 16,99</t>
+          <t>15,83; 21,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 20,41</t>
+          <t>16,99; 22,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 17,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 16,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 17,16</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 21,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 20,5</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 19,45</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>14,95%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>16,84%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,11%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>19,82%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>18,26%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 20,18</t>
+          <t>10,57; 17,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 18,49</t>
+          <t>11,98; 18,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 19,25</t>
+          <t>12,01; 19,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 22,09</t>
+          <t>16,81; 25,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 15,7</t>
+          <t>12,31; 22,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 15,69</t>
+          <t>16,44; 26,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 15,18</t>
+          <t>8,86; 14,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 26,35</t>
+          <t>10,35; 15,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,78</t>
+          <t>10,24; 15,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,31</t>
+          <t>14,43; 21,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,28</t>
+          <t>14,88; 26,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 22,19</t>
+          <t>15,8; 28,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 15,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,98; 15,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 16,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 22,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 22,1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 25,51</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,5%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 22,53</t>
+          <t>6,73; 18,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,83</t>
+          <t>2,9; 9,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 20,34</t>
+          <t>9,3; 20,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9,21; 24,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,3; 23,25</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 22,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 23,36</t>
+          <t>9,71; 22,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>10,59; 22,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 23,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 26,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,77; 19,52</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 14,39</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>11,56; 19,77</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 18,62</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 14,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 20,07</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 21,83</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>14,26%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>18,84%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,75%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>18,34%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 17,21</t>
+          <t>11,61; 15,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,94</t>
+          <t>11,49; 14,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,53</t>
+          <t>12,58; 16,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,54; 20,54</t>
+          <t>16,22; 21,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,29</t>
+          <t>15,34; 20,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 16,3</t>
+          <t>14,33; 19,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 16,53</t>
+          <t>12,41; 16,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 21,48</t>
+          <t>12,78; 16,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 15,93</t>
+          <t>13,29; 16,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 14,93</t>
+          <t>16,9; 21,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 16,0</t>
+          <t>16,43; 21,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,19</t>
+          <t>17,5; 22,68</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 15,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 15,18</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 16,16</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 20,8</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 20,33</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 20,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>228526</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>222849</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>229445</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>286290</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41433</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34316</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>287091</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>280477</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>294683</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>374358</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43934</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46008</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>515617</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>503325</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>524128</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>660648</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>85367</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>80325</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>187842; 277512</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>181927; 264836</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>188380; 274544</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>234685; 346411</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35231; 47924</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28492; 40818</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>240325; 340533</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>237599; 329401</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>246857; 346212</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>312892; 445454</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37436; 51877</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40034; 52628</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>454613; 586836</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>444089; 562800</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>464522; 592370</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>574876; 750544</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>76342; 95284</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>71736; 90160</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>187677</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>204836</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>207799</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>284630</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12019</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15376</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>163645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>175020</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>175893</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>245889</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12850</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14320</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>351322</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>379856</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>383692</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>530519</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>24868</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29695</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>145177; 241678</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>164085; 254811</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>165070; 264371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>231702; 346123</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8786; 15823</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12012; 19100</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>123267; 208092</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>141321; 213333</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>141137; 210404</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>199837; 300535</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9648; 17441</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10570; 19059</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>290785; 419500</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>327818; 437541</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>328204; 454021</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>457166; 609301</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>20104; 30105</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>24753; 35708</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50715</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23771</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>61169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67066</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61171</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64839</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>70222</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66816</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>111887</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>88610</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>131391</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>133882</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28245; 77687</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12212; 41309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39314; 86944</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38953; 102004</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39158; 92501</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43391; 90769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47621; 94487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43171; 107493</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>78945; 153225</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>62138; 119417</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>97079; 167097</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>96129; 180741</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>466919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>451456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>498413</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>637987</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53451</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49692</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>511908</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>520335</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>540798</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>687063</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56783</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60328</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>978826</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>971791</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1039211</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1325049</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>110235</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>110020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>399092; 549545</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>393872; 509773</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>432831; 568568</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>557194; 729994</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45986; 61472</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43148; 57651</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>445279; 581770</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>459102; 583079</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>478300; 609555</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>607789; 782166</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49527; 65386</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52946; 68617</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>885828; 1079334</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>885459; 1065949</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>955581; 1137602</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1200335; 1462679</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>99383; 122203</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>100475; 122550</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
